--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.06597923969386588</v>
+        <v>0.07634306692504245</v>
       </c>
       <c r="D2">
-        <v>0.3083483910299929</v>
+        <v>0.3920087038318165</v>
       </c>
       <c r="E2">
-        <v>0.4339554423273875</v>
+        <v>0.3918716475723727</v>
       </c>
       <c r="F2">
-        <v>0.09968365115629862</v>
+        <v>0.09458195244530843</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06597923969386588</v>
+        <v>0.07634306692504245</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3458491949590456</v>
+        <v>0.4295151170385405</v>
       </c>
       <c r="E3">
-        <v>0.1783950025473362</v>
+        <v>0.1656384087488514</v>
       </c>
       <c r="F3">
-        <v>0.5563394045674848</v>
+        <v>0.4619385745363145</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3083483910299929</v>
+        <v>0.3920087038318165</v>
       </c>
       <c r="C4">
-        <v>0.3458491949590456</v>
+        <v>0.4295151170385405</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5658739666186081</v>
+        <v>0.5972245527549576</v>
       </c>
       <c r="F4">
-        <v>0.660976988764294</v>
+        <v>0.6749747880229071</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4339554423273875</v>
+        <v>0.3918716475723727</v>
       </c>
       <c r="C5">
-        <v>0.1783950025473362</v>
+        <v>0.1656384087488514</v>
       </c>
       <c r="D5">
-        <v>0.5658739666186081</v>
+        <v>0.5972245527549576</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2661836106536071</v>
+        <v>0.3226275213869265</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09968365115629862</v>
+        <v>0.09458195244530843</v>
       </c>
       <c r="C6">
-        <v>0.5563394045674848</v>
+        <v>0.4619385745363145</v>
       </c>
       <c r="D6">
-        <v>0.660976988764294</v>
+        <v>0.6749747880229071</v>
       </c>
       <c r="E6">
-        <v>0.2661836106536071</v>
+        <v>0.3226275213869265</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.839964890026321</v>
+        <v>-1.859765880946411</v>
       </c>
       <c r="D2">
-        <v>-1.019054493855151</v>
+        <v>-0.8731568255455207</v>
       </c>
       <c r="E2">
-        <v>-0.7826602207178901</v>
+        <v>-0.8734139177567816</v>
       </c>
       <c r="F2">
-        <v>-1.647451250739955</v>
+        <v>-1.747017215646653</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.839964890026321</v>
+        <v>1.859765880946411</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9429804363371955</v>
+        <v>0.8048569576179185</v>
       </c>
       <c r="E3">
-        <v>1.346370784977448</v>
+        <v>1.433984059962139</v>
       </c>
       <c r="F3">
-        <v>0.5884249976595105</v>
+        <v>0.7487502464899295</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019054493855151</v>
+        <v>0.8731568255455207</v>
       </c>
       <c r="C4">
-        <v>-0.9429804363371955</v>
+        <v>-0.8048569576179185</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5742713223034944</v>
+        <v>0.5361651101071694</v>
       </c>
       <c r="F4">
-        <v>-0.4386555487004933</v>
+        <v>-0.4249859301041415</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7826602207178901</v>
+        <v>0.8734139177567816</v>
       </c>
       <c r="C5">
-        <v>-1.346370784977448</v>
+        <v>-1.433984059962139</v>
       </c>
       <c r="D5">
-        <v>-0.5742713223034944</v>
+        <v>-0.5361651101071694</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.112326435695712</v>
+        <v>-1.011811803301595</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.647451250739955</v>
+        <v>1.747017215646653</v>
       </c>
       <c r="C6">
-        <v>-0.5884249976595105</v>
+        <v>-0.7487502464899295</v>
       </c>
       <c r="D6">
-        <v>0.4386555487004933</v>
+        <v>0.4249859301041415</v>
       </c>
       <c r="E6">
-        <v>1.112326435695712</v>
+        <v>1.011811803301595</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07634306692504245</v>
+        <v>0.1149199707424657</v>
       </c>
       <c r="D2">
-        <v>0.3920087038318165</v>
+        <v>0.3394613173590073</v>
       </c>
       <c r="E2">
-        <v>0.3918716475723727</v>
+        <v>0.254654727630222</v>
       </c>
       <c r="F2">
-        <v>0.09458195244530843</v>
+        <v>0.1663077237304253</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07634306692504245</v>
+        <v>0.1149199707424657</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4295151170385405</v>
+        <v>0.03625778835964444</v>
       </c>
       <c r="E3">
-        <v>0.1656384087488514</v>
+        <v>0.07755273791888651</v>
       </c>
       <c r="F3">
-        <v>0.4619385745363145</v>
+        <v>0.9199717272222141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3920087038318165</v>
+        <v>0.3394613173590073</v>
       </c>
       <c r="C4">
-        <v>0.4295151170385405</v>
+        <v>0.03625778835964444</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5972245527549576</v>
+        <v>0.2559554973128624</v>
       </c>
       <c r="F4">
-        <v>0.6749747880229071</v>
+        <v>0.1358221877949202</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3918716475723727</v>
+        <v>0.254654727630222</v>
       </c>
       <c r="C5">
-        <v>0.1656384087488514</v>
+        <v>0.07755273791888651</v>
       </c>
       <c r="D5">
-        <v>0.5972245527549576</v>
+        <v>0.2559554973128624</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3226275213869265</v>
+        <v>0.3816635830480966</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09458195244530843</v>
+        <v>0.1663077237304253</v>
       </c>
       <c r="C6">
-        <v>0.4619385745363145</v>
+        <v>0.9199717272222141</v>
       </c>
       <c r="D6">
-        <v>0.6749747880229071</v>
+        <v>0.1358221877949202</v>
       </c>
       <c r="E6">
-        <v>0.3226275213869265</v>
+        <v>0.3816635830480966</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.859765880946411</v>
+        <v>1.617925073675313</v>
       </c>
       <c r="D2">
-        <v>-0.8731568255455207</v>
+        <v>0.968851328144713</v>
       </c>
       <c r="E2">
-        <v>-0.8734139177567816</v>
+        <v>1.158694118422899</v>
       </c>
       <c r="F2">
-        <v>-1.747017215646653</v>
+        <v>1.414501679880593</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.859765880946411</v>
+        <v>-1.617925073675313</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8048569576179185</v>
+        <v>-2.180228311113735</v>
       </c>
       <c r="E3">
-        <v>1.433984059962139</v>
+        <v>-1.820127337422772</v>
       </c>
       <c r="F3">
-        <v>0.7487502464899295</v>
+        <v>0.1012182997513016</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8731568255455207</v>
+        <v>-0.968851328144713</v>
       </c>
       <c r="C4">
-        <v>-0.8048569576179185</v>
+        <v>2.180228311113735</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5361651101071694</v>
+        <v>1.155465729331754</v>
       </c>
       <c r="F4">
-        <v>-0.4249859301041415</v>
+        <v>1.52776241850707</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8734139177567816</v>
+        <v>-1.158694118422899</v>
       </c>
       <c r="C5">
-        <v>-1.433984059962139</v>
+        <v>1.820127337422772</v>
       </c>
       <c r="D5">
-        <v>-0.5361651101071694</v>
+        <v>-1.155465729331754</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.011811803301595</v>
+        <v>0.8863347907421137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.747017215646653</v>
+        <v>-1.414501679880593</v>
       </c>
       <c r="C6">
-        <v>-0.7487502464899295</v>
+        <v>-0.1012182997513016</v>
       </c>
       <c r="D6">
-        <v>0.4249859301041415</v>
+        <v>-1.52776241850707</v>
       </c>
       <c r="E6">
-        <v>1.011811803301595</v>
+        <v>-0.8863347907421137</v>
       </c>
       <c r="F6">
         <v>0</v>
